--- a/dossiers/Tableaux Dossier Final.xlsx
+++ b/dossiers/Tableaux Dossier Final.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9FAE58-97F4-4F30-9433-253DE7A0F19C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26100" windowHeight="8100" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="26100" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
@@ -26,17 +20,12 @@
     <sheet name="Config dbl pt" sheetId="11" r:id="rId11"/>
     <sheet name="Config dbl pt avec cumul" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="178">
   <si>
     <t>ART</t>
   </si>
@@ -575,7 +564,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,7 +612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,8 +643,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -841,13 +836,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -937,6 +956,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,34 +1017,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1003,14 +1028,6 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1025,42 +1042,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1097,7 +1078,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1129,13 +1109,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1150,21 +1123,67 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1216,26 +1235,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1245,7 +1244,10 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Nombre de titres ayant X mots après ":"</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1487,7 +1489,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F918-40BF-8621-E69E4639CF7C}"/>
             </c:ext>
@@ -1501,10 +1503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555381464"/>
-        <c:axId val="555381792"/>
-        <c:extLst>
+        <c:axId val="47774720"/>
+        <c:axId val="48259840"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -1768,7 +1771,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="555381464"/>
+        <c:axId val="47774720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,7 +1813,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555381792"/>
+        <c:crossAx val="48259840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1818,7 +1821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555381792"/>
+        <c:axId val="48259840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,7 +1869,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555381464"/>
+        <c:crossAx val="47774720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1911,14 +1914,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2516,7 +2519,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DF95FB-8E36-4BCD-8BAA-E95EDDF5779C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75DF95FB-8E36-4BCD-8BAA-E95EDDF5779C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,11 +2541,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68177E78-425F-479C-92BA-BD3646DD6D91}" name="Tableau1" displayName="Tableau1" ref="A1:B28" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:B28" xr:uid="{71E49BA1-31C8-4593-AC20-8021FE95940C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B28"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A5106880-B548-4A2F-B733-5D8B40CBA0C3}" name="Colonne1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1706E979-E31B-47FA-B523-9D93FB913B73}" name="Colonne2" dataDxfId="2"/>
+    <tableColumn id="1" name="Colonne1" dataDxfId="1"/>
+    <tableColumn id="2" name="Colonne2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2837,14 +2840,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,31 +2862,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
@@ -3555,7 +3558,7 @@
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="54">
         <f>(F15+F20)/F28</f>
         <v>3.5652030444108091E-3</v>
       </c>
@@ -3577,7 +3580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B1BF35-BC06-4724-9D90-3C927F81D058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3590,237 +3593,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="56" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="58" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="58" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="58" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="58" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="58" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="58" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="58" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="58" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="58" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="58" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="58" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="58" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="58" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="58" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="58" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="58" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="58" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="58" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="60" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="61" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" location="section2.3.4 " xr:uid="{A214C7E5-71D9-401C-B865-ED59F9F54F22}"/>
+    <hyperlink ref="B30" r:id="rId1" location="section2.3.4 "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3831,11 +3834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC79100-85DE-4820-B8B6-F1CFF3254E9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="O87" sqref="O87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,7 +3919,7 @@
       <c r="C14">
         <v>98</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="53">
         <v>1.1382774841744579E-3</v>
       </c>
     </row>
@@ -3927,7 +3930,7 @@
       <c r="C15">
         <v>497</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="53">
         <v>5.7726929554561823E-3</v>
       </c>
     </row>
@@ -3938,7 +3941,7 @@
       <c r="C16">
         <v>2344</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="53">
         <v>2.7225739009233991E-2</v>
       </c>
     </row>
@@ -3949,7 +3952,7 @@
       <c r="C17">
         <v>6854</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="53">
         <v>7.9609733433997326E-2</v>
       </c>
     </row>
@@ -3960,7 +3963,7 @@
       <c r="C18">
         <v>8315</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="53">
         <v>9.6579360009292056E-2</v>
       </c>
     </row>
@@ -3971,7 +3974,7 @@
       <c r="C19">
         <v>9279</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="53">
         <v>0.1077762936291306</v>
       </c>
     </row>
@@ -3982,7 +3985,7 @@
       <c r="C20">
         <v>9179</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="53">
         <v>0.10661478599221789</v>
       </c>
     </row>
@@ -3993,7 +3996,7 @@
       <c r="C21">
         <v>8304</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="53">
         <v>9.6451594169231658E-2</v>
       </c>
     </row>
@@ -4004,7 +4007,7 @@
       <c r="C22">
         <v>7270</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="53">
         <v>8.4441605203554218E-2</v>
       </c>
     </row>
@@ -4015,7 +4018,7 @@
       <c r="C23">
         <v>6251</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="53">
         <v>7.2605842383413666E-2</v>
       </c>
     </row>
@@ -4026,7 +4029,7 @@
       <c r="C24">
         <v>5366</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="53">
         <v>6.2326499796736157E-2</v>
       </c>
     </row>
@@ -4037,7 +4040,7 @@
       <c r="C25">
         <v>4438</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="53">
         <v>5.1547708926186188E-2</v>
       </c>
     </row>
@@ -4048,7 +4051,7 @@
       <c r="C26">
         <v>3657</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="53">
         <v>4.2476334281897912E-2</v>
       </c>
     </row>
@@ -4059,7 +4062,7 @@
       <c r="C27">
         <v>2919</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="53">
         <v>3.3904407921482083E-2</v>
       </c>
     </row>
@@ -4070,7 +4073,7 @@
       <c r="C28">
         <v>2360</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="53">
         <v>2.7411580231140022E-2</v>
       </c>
     </row>
@@ -4081,7 +4084,7 @@
       <c r="C29">
         <v>1822</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="53">
         <v>2.1162669144549621E-2</v>
       </c>
     </row>
@@ -4092,7 +4095,7 @@
       <c r="C30">
         <v>1465</v>
       </c>
-      <c r="D30" s="63">
+      <c r="D30" s="53">
         <v>1.701608688077124E-2</v>
       </c>
     </row>
@@ -4103,7 +4106,7 @@
       <c r="C31">
         <v>1134</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="53">
         <v>1.317149660259016E-2</v>
       </c>
     </row>
@@ -4114,7 +4117,7 @@
       <c r="C32">
         <v>854</v>
       </c>
-      <c r="D32" s="63">
+      <c r="D32" s="53">
         <v>9.9192752192345662E-3</v>
       </c>
     </row>
@@ -4125,7 +4128,7 @@
       <c r="C33">
         <v>733</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="53">
         <v>8.5138509785701848E-3</v>
       </c>
     </row>
@@ -4136,7 +4139,7 @@
       <c r="C34">
         <v>562</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="53">
         <v>6.5276729194494454E-3</v>
       </c>
     </row>
@@ -4147,7 +4150,7 @@
       <c r="C35">
         <v>456</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="53">
         <v>5.2964748243219699E-3</v>
       </c>
     </row>
@@ -4158,7 +4161,7 @@
       <c r="C36">
         <v>338</v>
       </c>
-      <c r="D36" s="63">
+      <c r="D36" s="53">
         <v>3.9258958127649686E-3</v>
       </c>
     </row>
@@ -4169,7 +4172,7 @@
       <c r="C37">
         <v>271</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="53">
         <v>3.1476856960334508E-3</v>
       </c>
     </row>
@@ -4180,7 +4183,7 @@
       <c r="C38">
         <v>241</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="53">
         <v>2.7992334049596378E-3</v>
       </c>
     </row>
@@ -4191,7 +4194,7 @@
       <c r="C39">
         <v>177</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="53">
         <v>2.055868517335501E-3</v>
       </c>
     </row>
@@ -4202,7 +4205,7 @@
       <c r="C40">
         <v>155</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D40" s="53">
         <v>1.8003368372147049E-3</v>
       </c>
     </row>
@@ -4213,7 +4216,7 @@
       <c r="C41">
         <v>118</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="53">
         <v>1.370579011557001E-3</v>
       </c>
     </row>
@@ -4224,7 +4227,7 @@
       <c r="C42">
         <v>92</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D42" s="53">
         <v>1.0685870259596959E-3</v>
       </c>
     </row>
@@ -4235,7 +4238,7 @@
       <c r="C43">
         <v>80</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="53">
         <v>9.2920610953017011E-4</v>
       </c>
     </row>
@@ -4246,7 +4249,7 @@
       <c r="C44">
         <v>68</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="53">
         <v>7.898251931006446E-4</v>
       </c>
     </row>
@@ -4257,7 +4260,7 @@
       <c r="C45">
         <v>53</v>
       </c>
-      <c r="D45" s="63">
+      <c r="D45" s="53">
         <v>6.1559904756373776E-4</v>
       </c>
     </row>
@@ -4268,7 +4271,7 @@
       <c r="C46">
         <v>41</v>
       </c>
-      <c r="D46" s="63">
+      <c r="D46" s="53">
         <v>4.762181311342122E-4</v>
       </c>
     </row>
@@ -4279,7 +4282,7 @@
       <c r="C47">
         <v>43</v>
       </c>
-      <c r="D47" s="63">
+      <c r="D47" s="53">
         <v>4.9944828387246643E-4</v>
       </c>
     </row>
@@ -4290,7 +4293,7 @@
       <c r="C48">
         <v>32</v>
       </c>
-      <c r="D48" s="63">
+      <c r="D48" s="53">
         <v>3.7168244381206812E-4</v>
       </c>
     </row>
@@ -4301,7 +4304,7 @@
       <c r="C49">
         <v>30</v>
       </c>
-      <c r="D49" s="63">
+      <c r="D49" s="53">
         <v>3.4845229107381378E-4</v>
       </c>
     </row>
@@ -4312,7 +4315,7 @@
       <c r="C50">
         <v>23</v>
       </c>
-      <c r="D50" s="63">
+      <c r="D50" s="53">
         <v>2.6714675648992388E-4</v>
       </c>
     </row>
@@ -4323,7 +4326,7 @@
       <c r="C51">
         <v>23</v>
       </c>
-      <c r="D51" s="63">
+      <c r="D51" s="53">
         <v>2.6714675648992388E-4</v>
       </c>
     </row>
@@ -4334,7 +4337,7 @@
       <c r="C52">
         <v>23</v>
       </c>
-      <c r="D52" s="63">
+      <c r="D52" s="53">
         <v>2.6714675648992388E-4</v>
       </c>
     </row>
@@ -4345,7 +4348,7 @@
       <c r="C53">
         <v>16</v>
       </c>
-      <c r="D53" s="63">
+      <c r="D53" s="53">
         <v>1.8584122190603401E-4</v>
       </c>
     </row>
@@ -4356,7 +4359,7 @@
       <c r="C54">
         <v>16</v>
       </c>
-      <c r="D54" s="63">
+      <c r="D54" s="53">
         <v>1.8584122190603401E-4</v>
       </c>
     </row>
@@ -4367,7 +4370,7 @@
       <c r="C55">
         <v>11</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="53">
         <v>1.2776584006039839E-4</v>
       </c>
     </row>
@@ -4378,7 +4381,7 @@
       <c r="C56">
         <v>6</v>
       </c>
-      <c r="D56" s="63">
+      <c r="D56" s="53">
         <v>6.9690458214762756E-5</v>
       </c>
     </row>
@@ -4389,7 +4392,7 @@
       <c r="C57">
         <v>10</v>
       </c>
-      <c r="D57" s="63">
+      <c r="D57" s="53">
         <v>1.161507636912713E-4</v>
       </c>
     </row>
@@ -4400,7 +4403,7 @@
       <c r="C58">
         <v>6</v>
       </c>
-      <c r="D58" s="63">
+      <c r="D58" s="53">
         <v>6.9690458214762756E-5</v>
       </c>
     </row>
@@ -4411,7 +4414,7 @@
       <c r="C59">
         <v>10</v>
       </c>
-      <c r="D59" s="63">
+      <c r="D59" s="53">
         <v>1.161507636912713E-4</v>
       </c>
     </row>
@@ -4422,7 +4425,7 @@
       <c r="C60">
         <v>4</v>
       </c>
-      <c r="D60" s="63">
+      <c r="D60" s="53">
         <v>4.6460305476508508E-5</v>
       </c>
     </row>
@@ -4433,7 +4436,7 @@
       <c r="C61">
         <v>3</v>
       </c>
-      <c r="D61" s="63">
+      <c r="D61" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
     </row>
@@ -4444,7 +4447,7 @@
       <c r="C62">
         <v>4</v>
       </c>
-      <c r="D62" s="63">
+      <c r="D62" s="53">
         <v>4.6460305476508508E-5</v>
       </c>
     </row>
@@ -4455,7 +4458,7 @@
       <c r="C63">
         <v>7</v>
       </c>
-      <c r="D63" s="63">
+      <c r="D63" s="53">
         <v>8.1305534583889886E-5</v>
       </c>
     </row>
@@ -4466,7 +4469,7 @@
       <c r="C64">
         <v>6</v>
       </c>
-      <c r="D64" s="63">
+      <c r="D64" s="53">
         <v>6.9690458214762756E-5</v>
       </c>
     </row>
@@ -4477,7 +4480,7 @@
       <c r="C65">
         <v>3</v>
       </c>
-      <c r="D65" s="63">
+      <c r="D65" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
     </row>
@@ -4488,7 +4491,7 @@
       <c r="C66">
         <v>3</v>
       </c>
-      <c r="D66" s="63">
+      <c r="D66" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
     </row>
@@ -4499,7 +4502,7 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="63">
+      <c r="D67" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4510,7 +4513,7 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="63">
+      <c r="D68" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4521,7 +4524,7 @@
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="63">
+      <c r="D69" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4532,7 +4535,7 @@
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="63">
+      <c r="D70" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4543,7 +4546,7 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="63">
+      <c r="D71" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4554,7 +4557,7 @@
       <c r="C72">
         <v>3</v>
       </c>
-      <c r="D72" s="63">
+      <c r="D72" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
     </row>
@@ -4565,7 +4568,7 @@
       <c r="C73">
         <v>3</v>
       </c>
-      <c r="D73" s="63">
+      <c r="D73" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
     </row>
@@ -4576,7 +4579,7 @@
       <c r="C74">
         <v>2</v>
       </c>
-      <c r="D74" s="63">
+      <c r="D74" s="53">
         <v>2.3230152738254251E-5</v>
       </c>
     </row>
@@ -4587,7 +4590,7 @@
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" s="63">
+      <c r="D75" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4598,7 +4601,7 @@
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" s="63">
+      <c r="D76" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4609,7 +4612,7 @@
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" s="63">
+      <c r="D77" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4620,7 +4623,7 @@
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" s="63">
+      <c r="D78" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4631,7 +4634,7 @@
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" s="63">
+      <c r="D79" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4642,7 +4645,7 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" s="63">
+      <c r="D80" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4653,7 +4656,7 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" s="63">
+      <c r="D81" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4664,7 +4667,7 @@
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82" s="63">
+      <c r="D82" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4675,7 +4678,7 @@
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" s="63">
+      <c r="D83" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4686,7 +4689,7 @@
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84" s="63">
+      <c r="D84" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4697,7 +4700,7 @@
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85" s="63">
+      <c r="D85" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4708,7 +4711,7 @@
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86" s="63">
+      <c r="D86" s="53">
         <v>1.161507636912713E-5</v>
       </c>
     </row>
@@ -4719,10 +4722,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF6858B-D499-4336-91A6-D299BBA9A618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -4735,14 +4738,14 @@
       <c r="B1">
         <v>9279</v>
       </c>
-      <c r="C1" s="63">
+      <c r="C1" s="53">
         <v>0.1077762936291306</v>
       </c>
-      <c r="D1" s="72">
+      <c r="D1" s="62">
         <f>C1</f>
         <v>0.1077762936291306</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -4751,14 +4754,14 @@
       <c r="B2">
         <v>9179</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="53">
         <v>0.10661478599221789</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="62">
         <f>C2+D1</f>
         <v>0.21439107962134851</v>
       </c>
-      <c r="E2" s="72"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4767,14 +4770,14 @@
       <c r="B3">
         <v>8315</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="53">
         <v>9.6579360009292056E-2</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="62">
         <f t="shared" ref="D3:D66" si="0">C3+D2</f>
         <v>0.31097043963064058</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4783,14 +4786,14 @@
       <c r="B4">
         <v>8304</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="53">
         <v>9.6451594169231658E-2</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="62">
         <f t="shared" si="0"/>
         <v>0.40742203379987224</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4799,14 +4802,14 @@
       <c r="B5">
         <v>7270</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="53">
         <v>8.4441605203554218E-2</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="62">
         <f t="shared" si="0"/>
         <v>0.49186363900342644</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4815,14 +4818,14 @@
       <c r="B6">
         <v>6854</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="53">
         <v>7.9609733433997326E-2</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="62">
         <f t="shared" si="0"/>
         <v>0.5714733724374238</v>
       </c>
-      <c r="E6" s="72"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4831,14 +4834,14 @@
       <c r="B7">
         <v>6251</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="53">
         <v>7.2605842383413666E-2</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="62">
         <f t="shared" si="0"/>
         <v>0.64407921482083741</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4847,14 +4850,14 @@
       <c r="B8">
         <v>5366</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="53">
         <v>6.2326499796736157E-2</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="62">
         <f t="shared" si="0"/>
         <v>0.70640571461757351</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4863,14 +4866,14 @@
       <c r="B9">
         <v>4438</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="53">
         <v>5.1547708926186188E-2</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="62">
         <f t="shared" si="0"/>
         <v>0.75795342354375972</v>
       </c>
-      <c r="E9" s="72"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4879,14 +4882,14 @@
       <c r="B10">
         <v>3657</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="53">
         <v>4.2476334281897912E-2</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="62">
         <f t="shared" si="0"/>
         <v>0.80042975782565762</v>
       </c>
-      <c r="E10" s="72"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4895,14 +4898,14 @@
       <c r="B11">
         <v>2919</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="53">
         <v>3.3904407921482083E-2</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="62">
         <f t="shared" si="0"/>
         <v>0.8343341657471397</v>
       </c>
-      <c r="E11" s="72"/>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4911,14 +4914,14 @@
       <c r="B12">
         <v>2360</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="53">
         <v>2.7411580231140022E-2</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="62">
         <f t="shared" si="0"/>
         <v>0.86174574597827969</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4927,14 +4930,14 @@
       <c r="B13">
         <v>2344</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="53">
         <v>2.7225739009233991E-2</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="62">
         <f t="shared" si="0"/>
         <v>0.88897148498751366</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="62"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4943,14 +4946,14 @@
       <c r="B14">
         <v>1822</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="53">
         <v>2.1162669144549621E-2</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="62">
         <f t="shared" si="0"/>
         <v>0.91013415413206333</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4959,14 +4962,14 @@
       <c r="B15">
         <v>1465</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="53">
         <v>1.701608688077124E-2</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="62">
         <f t="shared" si="0"/>
         <v>0.92715024101283461</v>
       </c>
-      <c r="E15" s="72"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4975,14 +4978,14 @@
       <c r="B16">
         <v>1134</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="53">
         <v>1.317149660259016E-2</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="62">
         <f t="shared" si="0"/>
         <v>0.94032173761542481</v>
       </c>
-      <c r="E16" s="72"/>
+      <c r="E16" s="62"/>
       <c r="F16" t="s">
         <v>172</v>
       </c>
@@ -5001,14 +5004,14 @@
       <c r="B17">
         <v>854</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="53">
         <v>9.9192752192345662E-3</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="62">
         <f t="shared" si="0"/>
         <v>0.95024101283465934</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="62"/>
       <c r="F17" t="s">
         <v>172</v>
       </c>
@@ -5027,14 +5030,14 @@
       <c r="B18">
         <v>733</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="53">
         <v>8.5138509785701848E-3</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="62">
         <f t="shared" si="0"/>
         <v>0.9587548638132295</v>
       </c>
-      <c r="E18" s="72"/>
+      <c r="E18" s="62"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -5043,14 +5046,14 @@
       <c r="B19">
         <v>562</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="53">
         <v>6.5276729194494454E-3</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="62">
         <f t="shared" si="0"/>
         <v>0.96528253673267894</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -5059,14 +5062,14 @@
       <c r="B20">
         <v>497</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="53">
         <v>5.7726929554561823E-3</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="62">
         <f t="shared" si="0"/>
         <v>0.97105522968813518</v>
       </c>
-      <c r="E20" s="72"/>
+      <c r="E20" s="62"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -5075,14 +5078,14 @@
       <c r="B21">
         <v>456</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="53">
         <v>5.2964748243219699E-3</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="62">
         <f t="shared" si="0"/>
         <v>0.97635170451245712</v>
       </c>
-      <c r="E21" s="72"/>
+      <c r="E21" s="62"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -5091,14 +5094,14 @@
       <c r="B22">
         <v>338</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="53">
         <v>3.9258958127649686E-3</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="62">
         <f t="shared" si="0"/>
         <v>0.98027760032522204</v>
       </c>
-      <c r="E22" s="72"/>
+      <c r="E22" s="62"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -5107,14 +5110,14 @@
       <c r="B23">
         <v>271</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="53">
         <v>3.1476856960334508E-3</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="62">
         <f t="shared" si="0"/>
         <v>0.98342528602125545</v>
       </c>
-      <c r="E23" s="72"/>
+      <c r="E23" s="62"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -5123,14 +5126,14 @@
       <c r="B24">
         <v>241</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="53">
         <v>2.7992334049596378E-3</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="62">
         <f t="shared" si="0"/>
         <v>0.98622451942621514</v>
       </c>
-      <c r="E24" s="72"/>
+      <c r="E24" s="62"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -5139,14 +5142,14 @@
       <c r="B25">
         <v>177</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="53">
         <v>2.055868517335501E-3</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="62">
         <f t="shared" si="0"/>
         <v>0.98828038794355066</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -5155,14 +5158,14 @@
       <c r="B26">
         <v>155</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="53">
         <v>1.8003368372147049E-3</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="62">
         <f t="shared" si="0"/>
         <v>0.99008072478076536</v>
       </c>
-      <c r="E26" s="72"/>
+      <c r="E26" s="62"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -5171,30 +5174,30 @@
       <c r="B27">
         <v>118</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="53">
         <v>1.370579011557001E-3</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="62">
         <f t="shared" si="0"/>
         <v>0.99145130379232238</v>
       </c>
-      <c r="E27" s="72"/>
+      <c r="E27" s="62"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28" s="73">
+      <c r="B28" s="63">
         <v>98</v>
       </c>
-      <c r="C28" s="63">
+      <c r="C28" s="53">
         <v>1.1382774841744579E-3</v>
       </c>
-      <c r="D28" s="72">
+      <c r="D28" s="62">
         <f t="shared" si="0"/>
         <v>0.99258958127649688</v>
       </c>
-      <c r="E28" s="72"/>
+      <c r="E28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -5203,14 +5206,14 @@
       <c r="B29">
         <v>92</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="53">
         <v>1.0685870259596959E-3</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="62">
         <f t="shared" si="0"/>
         <v>0.99365816830245657</v>
       </c>
-      <c r="E29" s="72"/>
+      <c r="E29" s="62"/>
       <c r="G29" t="s">
         <v>169</v>
       </c>
@@ -5226,15 +5229,15 @@
       <c r="B30">
         <v>80</v>
       </c>
-      <c r="C30" s="63">
+      <c r="C30" s="53">
         <v>9.2920610953017011E-4</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="62">
         <f t="shared" si="0"/>
         <v>0.99458737441198675</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="G30" s="74"/>
+      <c r="E30" s="62"/>
+      <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -5243,14 +5246,14 @@
       <c r="B31">
         <v>68</v>
       </c>
-      <c r="C31" s="63">
+      <c r="C31" s="53">
         <v>7.898251931006446E-4</v>
       </c>
-      <c r="D31" s="72">
+      <c r="D31" s="62">
         <f t="shared" si="0"/>
         <v>0.99537719960508741</v>
       </c>
-      <c r="E31" s="72"/>
+      <c r="E31" s="62"/>
       <c r="G31" t="s">
         <v>168</v>
       </c>
@@ -5266,14 +5269,14 @@
       <c r="B32">
         <v>53</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="53">
         <v>6.1559904756373776E-4</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="62">
         <f t="shared" si="0"/>
         <v>0.99599279865265111</v>
       </c>
-      <c r="E32" s="72"/>
+      <c r="E32" s="62"/>
       <c r="H32" s="3">
         <f>H29+H31</f>
         <v>86095</v>
@@ -5286,15 +5289,15 @@
       <c r="B33">
         <v>43</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="53">
         <v>4.9944828387246643E-4</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="62">
         <f t="shared" si="0"/>
         <v>0.99649224693652361</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="G33" s="74" t="s">
+      <c r="E33" s="62"/>
+      <c r="G33" s="64" t="s">
         <v>173</v>
       </c>
       <c r="H33">
@@ -5309,18 +5312,18 @@
       <c r="B34">
         <v>41</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="53">
         <v>4.762181311342122E-4</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="62">
         <f t="shared" si="0"/>
         <v>0.99696846506765779</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="G34" s="74" t="s">
+      <c r="E34" s="62"/>
+      <c r="G34" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="H34" s="76">
+      <c r="H34" s="66">
         <f>H33-H31</f>
         <v>85531</v>
       </c>
@@ -5332,14 +5335,14 @@
       <c r="B35">
         <v>32</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="53">
         <v>3.7168244381206812E-4</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="62">
         <f t="shared" si="0"/>
         <v>0.99734014751146982</v>
       </c>
-      <c r="E35" s="72"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -5348,15 +5351,15 @@
       <c r="B36">
         <v>30</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="53">
         <v>3.4845229107381378E-4</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="62">
         <f t="shared" si="0"/>
         <v>0.99768859980254365</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="H36" s="75" t="s">
+      <c r="E36" s="62"/>
+      <c r="H36" s="65" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5367,14 +5370,14 @@
       <c r="B37">
         <v>23</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="53">
         <v>2.6714675648992388E-4</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D37" s="62">
         <f t="shared" si="0"/>
         <v>0.99795574655903363</v>
       </c>
-      <c r="E37" s="72"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -5383,15 +5386,15 @@
       <c r="B38">
         <v>23</v>
       </c>
-      <c r="C38" s="63">
+      <c r="C38" s="53">
         <v>2.6714675648992388E-4</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="62">
         <f t="shared" si="0"/>
         <v>0.99822289331552361</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="H38" s="77">
+      <c r="E38" s="62"/>
+      <c r="H38" s="67">
         <v>84923</v>
       </c>
       <c r="I38" t="s">
@@ -5405,14 +5408,14 @@
       <c r="B39">
         <v>23</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="53">
         <v>2.6714675648992388E-4</v>
       </c>
-      <c r="D39" s="72">
+      <c r="D39" s="62">
         <f t="shared" si="0"/>
         <v>0.99849004007201358</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="62"/>
       <c r="H39">
         <f>H33-H38</f>
         <v>1074</v>
@@ -5428,14 +5431,14 @@
       <c r="B40">
         <v>16</v>
       </c>
-      <c r="C40" s="63">
+      <c r="C40" s="53">
         <v>1.8584122190603401E-4</v>
       </c>
-      <c r="D40" s="72">
+      <c r="D40" s="62">
         <f t="shared" si="0"/>
         <v>0.9986758812939196</v>
       </c>
-      <c r="E40" s="72"/>
+      <c r="E40" s="62"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -5444,14 +5447,14 @@
       <c r="B41">
         <v>16</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="53">
         <v>1.8584122190603401E-4</v>
       </c>
-      <c r="D41" s="72">
+      <c r="D41" s="62">
         <f t="shared" si="0"/>
         <v>0.99886172251582561</v>
       </c>
-      <c r="E41" s="72"/>
+      <c r="E41" s="62"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -5460,14 +5463,14 @@
       <c r="B42">
         <v>11</v>
       </c>
-      <c r="C42" s="63">
+      <c r="C42" s="53">
         <v>1.2776584006039839E-4</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="62">
         <f t="shared" si="0"/>
         <v>0.99898948835588597</v>
       </c>
-      <c r="E42" s="72"/>
+      <c r="E42" s="62"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -5476,14 +5479,14 @@
       <c r="B43">
         <v>10</v>
       </c>
-      <c r="C43" s="63">
+      <c r="C43" s="53">
         <v>1.161507636912713E-4</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D43" s="62">
         <f t="shared" si="0"/>
         <v>0.99910563911957728</v>
       </c>
-      <c r="E43" s="72"/>
+      <c r="E43" s="62"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -5492,14 +5495,14 @@
       <c r="B44">
         <v>10</v>
       </c>
-      <c r="C44" s="63">
+      <c r="C44" s="53">
         <v>1.161507636912713E-4</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="62">
         <f t="shared" si="0"/>
         <v>0.9992217898832686</v>
       </c>
-      <c r="E44" s="72"/>
+      <c r="E44" s="62"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -5508,14 +5511,14 @@
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="63">
+      <c r="C45" s="53">
         <v>8.1305534583889886E-5</v>
       </c>
-      <c r="D45" s="72">
+      <c r="D45" s="62">
         <f t="shared" si="0"/>
         <v>0.99930309541785245</v>
       </c>
-      <c r="E45" s="72"/>
+      <c r="E45" s="62"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -5524,14 +5527,14 @@
       <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="63">
+      <c r="C46" s="53">
         <v>6.9690458214762756E-5</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="62">
         <f t="shared" si="0"/>
         <v>0.99937278587606726</v>
       </c>
-      <c r="E46" s="72"/>
+      <c r="E46" s="62"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -5540,14 +5543,14 @@
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="63">
+      <c r="C47" s="53">
         <v>6.9690458214762756E-5</v>
       </c>
-      <c r="D47" s="72">
+      <c r="D47" s="62">
         <f t="shared" si="0"/>
         <v>0.99944247633428207</v>
       </c>
-      <c r="E47" s="72"/>
+      <c r="E47" s="62"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -5556,14 +5559,14 @@
       <c r="B48">
         <v>6</v>
       </c>
-      <c r="C48" s="63">
+      <c r="C48" s="53">
         <v>6.9690458214762756E-5</v>
       </c>
-      <c r="D48" s="72">
+      <c r="D48" s="62">
         <f t="shared" si="0"/>
         <v>0.99951216679249688</v>
       </c>
-      <c r="E48" s="72"/>
+      <c r="E48" s="62"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -5572,14 +5575,14 @@
       <c r="B49">
         <v>4</v>
       </c>
-      <c r="C49" s="63">
+      <c r="C49" s="53">
         <v>4.6460305476508508E-5</v>
       </c>
-      <c r="D49" s="72">
+      <c r="D49" s="62">
         <f t="shared" si="0"/>
         <v>0.99955862709797338</v>
       </c>
-      <c r="E49" s="72"/>
+      <c r="E49" s="62"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -5588,14 +5591,14 @@
       <c r="B50">
         <v>4</v>
       </c>
-      <c r="C50" s="63">
+      <c r="C50" s="53">
         <v>4.6460305476508508E-5</v>
       </c>
-      <c r="D50" s="72">
+      <c r="D50" s="62">
         <f t="shared" si="0"/>
         <v>0.99960508740344989</v>
       </c>
-      <c r="E50" s="72"/>
+      <c r="E50" s="62"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -5604,14 +5607,14 @@
       <c r="B51">
         <v>3</v>
       </c>
-      <c r="C51" s="63">
+      <c r="C51" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
-      <c r="D51" s="72">
+      <c r="D51" s="62">
         <f t="shared" si="0"/>
         <v>0.99963993263255724</v>
       </c>
-      <c r="E51" s="72"/>
+      <c r="E51" s="62"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -5620,14 +5623,14 @@
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" s="63">
+      <c r="C52" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="62">
         <f t="shared" si="0"/>
         <v>0.99967477786166459</v>
       </c>
-      <c r="E52" s="72"/>
+      <c r="E52" s="62"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -5636,14 +5639,14 @@
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="63">
+      <c r="C53" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
-      <c r="D53" s="72">
+      <c r="D53" s="62">
         <f t="shared" si="0"/>
         <v>0.99970962309077194</v>
       </c>
-      <c r="E53" s="72"/>
+      <c r="E53" s="62"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -5652,14 +5655,14 @@
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="C54" s="63">
+      <c r="C54" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
-      <c r="D54" s="72">
+      <c r="D54" s="62">
         <f t="shared" si="0"/>
         <v>0.99974446831987929</v>
       </c>
-      <c r="E54" s="72"/>
+      <c r="E54" s="62"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -5668,14 +5671,14 @@
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="53">
         <v>3.4845229107381378E-5</v>
       </c>
-      <c r="D55" s="72">
+      <c r="D55" s="62">
         <f t="shared" si="0"/>
         <v>0.99977931354898664</v>
       </c>
-      <c r="E55" s="72"/>
+      <c r="E55" s="62"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -5684,14 +5687,14 @@
       <c r="B56">
         <v>2</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C56" s="53">
         <v>2.3230152738254251E-5</v>
       </c>
-      <c r="D56" s="72">
+      <c r="D56" s="62">
         <f t="shared" si="0"/>
         <v>0.99980254370172494</v>
       </c>
-      <c r="E56" s="72"/>
+      <c r="E56" s="62"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -5700,14 +5703,14 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="63">
+      <c r="C57" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D57" s="72">
+      <c r="D57" s="62">
         <f t="shared" si="0"/>
         <v>0.9998141587780941</v>
       </c>
-      <c r="E57" s="72"/>
+      <c r="E57" s="62"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -5716,14 +5719,14 @@
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="63">
+      <c r="C58" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D58" s="72">
+      <c r="D58" s="62">
         <f t="shared" si="0"/>
         <v>0.99982577385446325</v>
       </c>
-      <c r="E58" s="72"/>
+      <c r="E58" s="62"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -5732,14 +5735,14 @@
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="63">
+      <c r="C59" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D59" s="72">
+      <c r="D59" s="62">
         <f t="shared" si="0"/>
         <v>0.9998373889308324</v>
       </c>
-      <c r="E59" s="72"/>
+      <c r="E59" s="62"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -5748,14 +5751,14 @@
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="63">
+      <c r="C60" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D60" s="72">
+      <c r="D60" s="62">
         <f t="shared" si="0"/>
         <v>0.99984900400720156</v>
       </c>
-      <c r="E60" s="72"/>
+      <c r="E60" s="62"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -5764,14 +5767,14 @@
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="63">
+      <c r="C61" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D61" s="72">
+      <c r="D61" s="62">
         <f t="shared" si="0"/>
         <v>0.99986061908357071</v>
       </c>
-      <c r="E61" s="72"/>
+      <c r="E61" s="62"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -5780,14 +5783,14 @@
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="63">
+      <c r="C62" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D62" s="72">
+      <c r="D62" s="62">
         <f t="shared" si="0"/>
         <v>0.99987223415993987</v>
       </c>
-      <c r="E62" s="72"/>
+      <c r="E62" s="62"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -5796,14 +5799,14 @@
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="63">
+      <c r="C63" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D63" s="72">
+      <c r="D63" s="62">
         <f t="shared" si="0"/>
         <v>0.99988384923630902</v>
       </c>
-      <c r="E63" s="72"/>
+      <c r="E63" s="62"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -5812,14 +5815,14 @@
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="63">
+      <c r="C64" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D64" s="72">
+      <c r="D64" s="62">
         <f t="shared" si="0"/>
         <v>0.99989546431267817</v>
       </c>
-      <c r="E64" s="72"/>
+      <c r="E64" s="62"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -5828,14 +5831,14 @@
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="63">
+      <c r="C65" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D65" s="72">
+      <c r="D65" s="62">
         <f t="shared" si="0"/>
         <v>0.99990707938904733</v>
       </c>
-      <c r="E65" s="72"/>
+      <c r="E65" s="62"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -5844,14 +5847,14 @@
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="63">
+      <c r="C66" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D66" s="72">
+      <c r="D66" s="62">
         <f t="shared" si="0"/>
         <v>0.99991869446541648</v>
       </c>
-      <c r="E66" s="72"/>
+      <c r="E66" s="62"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -5860,14 +5863,14 @@
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="63">
+      <c r="C67" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D67" s="72">
+      <c r="D67" s="62">
         <f t="shared" ref="D67:D73" si="1">C67+D66</f>
         <v>0.99993030954178563</v>
       </c>
-      <c r="E67" s="72"/>
+      <c r="E67" s="62"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -5876,14 +5879,14 @@
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" s="63">
+      <c r="C68" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D68" s="72">
+      <c r="D68" s="62">
         <f t="shared" si="1"/>
         <v>0.99994192461815479</v>
       </c>
-      <c r="E68" s="72"/>
+      <c r="E68" s="62"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -5892,14 +5895,14 @@
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" s="63">
+      <c r="C69" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D69" s="72">
+      <c r="D69" s="62">
         <f t="shared" si="1"/>
         <v>0.99995353969452394</v>
       </c>
-      <c r="E69" s="72"/>
+      <c r="E69" s="62"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -5908,14 +5911,14 @@
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" s="63">
+      <c r="C70" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D70" s="72">
+      <c r="D70" s="62">
         <f t="shared" si="1"/>
         <v>0.99996515477089309</v>
       </c>
-      <c r="E70" s="72"/>
+      <c r="E70" s="62"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -5924,14 +5927,14 @@
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="63">
+      <c r="C71" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D71" s="72">
+      <c r="D71" s="62">
         <f t="shared" si="1"/>
         <v>0.99997676984726225</v>
       </c>
-      <c r="E71" s="72"/>
+      <c r="E71" s="62"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -5940,14 +5943,14 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" s="63">
+      <c r="C72" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D72" s="72">
+      <c r="D72" s="62">
         <f t="shared" si="1"/>
         <v>0.9999883849236314</v>
       </c>
-      <c r="E72" s="72"/>
+      <c r="E72" s="62"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -5956,14 +5959,14 @@
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="63">
+      <c r="C73" s="53">
         <v>1.161507636912713E-5</v>
       </c>
-      <c r="D73" s="72">
+      <c r="D73" s="62">
         <f t="shared" si="1"/>
         <v>1.0000000000000004</v>
       </c>
-      <c r="E73" s="72"/>
+      <c r="E73" s="62"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74">
@@ -5980,7 +5983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6704,11 +6707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
@@ -8690,137 +8693,235 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="41">
         <v>245586</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="81">
+        <v>80441</v>
+      </c>
+      <c r="E2" s="79">
+        <f>D2/B2</f>
+        <v>0.32754717288444779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="42">
         <v>61262</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="82">
+        <v>15614</v>
+      </c>
+      <c r="E3" s="79">
+        <f t="shared" ref="E3:E14" si="0">D3/B3</f>
+        <v>0.25487251477261597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="42">
         <v>22785</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="82">
+        <v>5244</v>
+      </c>
+      <c r="E4" s="79">
+        <f t="shared" si="0"/>
+        <v>0.23015141540487163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="42">
         <v>21772</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="82">
+        <v>4469</v>
+      </c>
+      <c r="E5" s="79">
+        <f t="shared" si="0"/>
+        <v>0.20526364137424213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="42">
         <v>10521</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="82">
+        <v>3414</v>
+      </c>
+      <c r="E6" s="79">
+        <f t="shared" si="0"/>
+        <v>0.32449386940404906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="42">
         <v>8809</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="82">
+        <v>2013</v>
+      </c>
+      <c r="E7" s="79">
+        <f t="shared" si="0"/>
+        <v>0.22851629015779318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="42">
         <v>6425</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="82">
+        <v>2157</v>
+      </c>
+      <c r="E8" s="79">
+        <f t="shared" si="0"/>
+        <v>0.33571984435797664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="42">
         <v>5231</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="82">
+        <v>877</v>
+      </c>
+      <c r="E9" s="79">
+        <f t="shared" si="0"/>
+        <v>0.16765436818963869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="42">
         <v>3732</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="82">
+        <v>1354</v>
+      </c>
+      <c r="E10" s="79">
+        <f t="shared" si="0"/>
+        <v>0.36280814576634512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="42">
         <v>3597</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="82">
+        <v>1051</v>
+      </c>
+      <c r="E11" s="79">
+        <f t="shared" si="0"/>
+        <v>0.29218793438976925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="42">
         <v>1223</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="82">
+        <v>228</v>
+      </c>
+      <c r="E12" s="79">
+        <f t="shared" si="0"/>
+        <v>0.18642681929681112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="42">
         <v>740</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="82">
+        <v>283</v>
+      </c>
+      <c r="E13" s="79">
+        <f t="shared" si="0"/>
+        <v>0.38243243243243241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="42">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="83">
+        <v>22</v>
+      </c>
+      <c r="E14" s="79">
+        <f t="shared" si="0"/>
+        <v>0.28205128205128205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="42">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="80">
+        <f>SUM(D2:D14)</f>
+        <v>117167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>79</v>
       </c>
@@ -8828,15 +8929,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="42">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="68">
+        <v>85531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>81</v>
       </c>
@@ -8844,7 +8948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>82</v>
       </c>
@@ -8852,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>83</v>
       </c>
@@ -8860,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>61</v>
       </c>
@@ -8869,13 +8973,19 @@
         <v>391779</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="68">
+        <v>278806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9340,7 +9450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9411,7 +9521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9568,7 +9678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10060,7 +10170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
